--- a/tests/exel/textfile1.method_2.save.xlsx
+++ b/tests/exel/textfile1.method_2.save.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Frequency Histogram Data" sheetId="2" r:id="rId4"/>
     <sheet name="Frequency Histogram CryptData" sheetId="3" r:id="rId5"/>
+    <sheet name="NIST" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Data</t>
   </si>
@@ -25,6 +26,24 @@
   </si>
   <si>
     <t>CryptData</t>
+  </si>
+  <si>
+    <t>DFT</t>
+  </si>
+  <si>
+    <t>BlockFrequency (block - 16)</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Rank (m - 2, q - 2)</t>
+  </si>
+  <si>
+    <t>Rans</t>
+  </si>
+  <si>
+    <t>Runsblock</t>
   </si>
 </sst>
 </file>
@@ -16091,10 +16110,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -16102,10 +16121,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -16135,10 +16154,10 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -16157,10 +16176,10 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -16168,10 +16187,10 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -16179,10 +16198,10 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -16190,10 +16209,10 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -16201,10 +16220,10 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -16212,10 +16231,10 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -16223,10 +16242,10 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -16245,10 +16264,10 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -16256,10 +16275,10 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -16267,10 +16286,10 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -16311,10 +16330,10 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -16333,10 +16352,10 @@
         <v>0</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -16366,10 +16385,10 @@
         <v>0</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -16399,10 +16418,10 @@
         <v>0</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -16421,10 +16440,10 @@
         <v>0</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -16443,10 +16462,10 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -16454,10 +16473,10 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -16465,10 +16484,10 @@
         <v>0</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -16476,10 +16495,10 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -16520,10 +16539,10 @@
         <v>0</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -16553,10 +16572,10 @@
         <v>1</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -16575,10 +16594,10 @@
         <v>1</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -16597,10 +16616,10 @@
         <v>0</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -16630,10 +16649,10 @@
         <v>1</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -16641,10 +16660,10 @@
         <v>0</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -16652,10 +16671,10 @@
         <v>1</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -16685,10 +16704,10 @@
         <v>0</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -16718,10 +16737,10 @@
         <v>0</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -16740,10 +16759,10 @@
         <v>1</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -16773,10 +16792,10 @@
         <v>1</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -16784,10 +16803,10 @@
         <v>0</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -16817,10 +16836,10 @@
         <v>0</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -16828,10 +16847,10 @@
         <v>1</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -16839,10 +16858,10 @@
         <v>0</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -16850,10 +16869,10 @@
         <v>0</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -16872,10 +16891,10 @@
         <v>0</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -16883,10 +16902,10 @@
         <v>1</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -16894,10 +16913,10 @@
         <v>0</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -16905,10 +16924,10 @@
         <v>1</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -16927,10 +16946,10 @@
         <v>0</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -16938,10 +16957,10 @@
         <v>1</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -16993,10 +17012,10 @@
         <v>0</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -17015,10 +17034,10 @@
         <v>0</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -17026,10 +17045,10 @@
         <v>0</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -17037,10 +17056,10 @@
         <v>0</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -17070,10 +17089,10 @@
         <v>0</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -17103,10 +17122,10 @@
         <v>0</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -17136,10 +17155,10 @@
         <v>0</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -17147,10 +17166,10 @@
         <v>0</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -17158,10 +17177,10 @@
         <v>0</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -17169,10 +17188,10 @@
         <v>1</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -17180,10 +17199,10 @@
         <v>0</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -17213,10 +17232,10 @@
         <v>0</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -17224,10 +17243,10 @@
         <v>0</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -17257,10 +17276,10 @@
         <v>1</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -17268,10 +17287,10 @@
         <v>0</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -17301,10 +17320,10 @@
         <v>0</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -17367,10 +17386,10 @@
         <v>0</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -17389,10 +17408,10 @@
         <v>0</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -17411,10 +17430,10 @@
         <v>1</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -17422,10 +17441,10 @@
         <v>0</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -17433,10 +17452,10 @@
         <v>1</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -17455,10 +17474,10 @@
         <v>1</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -19602,7 +19621,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -19610,7 +19629,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -19618,7 +19637,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -19634,7 +19653,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -19642,7 +19661,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -19674,7 +19693,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -19714,7 +19733,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -19738,7 +19757,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -19802,7 +19821,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -19826,7 +19845,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -19874,7 +19893,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -19882,7 +19901,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -19898,7 +19917,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -19906,7 +19925,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -19922,7 +19941,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -19978,7 +19997,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -19994,7 +20013,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -20026,7 +20045,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -20034,7 +20053,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -20058,7 +20077,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -20106,7 +20125,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -20114,7 +20133,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -20186,7 +20205,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -20202,7 +20221,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -20210,7 +20229,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -20234,7 +20253,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -20250,7 +20269,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -20266,7 +20285,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -20282,7 +20301,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -20298,7 +20317,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -20322,7 +20341,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -20362,7 +20381,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -20386,7 +20405,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -20410,7 +20429,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -20418,7 +20437,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -20426,7 +20445,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -20434,7 +20453,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -20474,7 +20493,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -20498,7 +20517,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -20514,7 +20533,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -20522,7 +20541,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -20562,7 +20581,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -20594,7 +20613,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -20602,7 +20621,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -20642,7 +20661,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -20682,7 +20701,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -20722,7 +20741,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -20730,7 +20749,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -20738,7 +20757,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -20754,7 +20773,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -20778,7 +20797,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -20810,7 +20829,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -20818,7 +20837,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -20826,7 +20845,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -20834,7 +20853,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -20842,7 +20861,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -20850,7 +20869,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -20890,7 +20909,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -20898,7 +20917,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -20914,7 +20933,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -20922,7 +20941,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -20946,7 +20965,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -20962,7 +20981,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -20986,7 +21005,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -21002,7 +21021,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -21034,7 +21053,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -21050,7 +21069,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -21058,7 +21077,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -21066,7 +21085,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
@@ -21074,7 +21093,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -21114,7 +21133,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -21122,7 +21141,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -21130,7 +21149,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -21154,7 +21173,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -21202,7 +21221,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -21226,7 +21245,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -21234,7 +21253,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -21250,7 +21269,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -21290,7 +21309,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217">
@@ -21306,7 +21325,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -21330,7 +21349,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222">
@@ -21338,7 +21357,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -21354,7 +21373,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -21362,7 +21381,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -21370,7 +21389,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -21378,7 +21397,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -21386,7 +21405,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -21394,7 +21413,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -21410,7 +21429,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -21458,7 +21477,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -21466,7 +21485,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -21498,7 +21517,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243">
@@ -21506,7 +21525,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -21538,7 +21557,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -21554,7 +21573,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -21562,7 +21581,7 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -21570,7 +21589,7 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -21586,7 +21605,7 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -21594,7 +21613,7 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -21616,4 +21635,63 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <v>0.9542632583264176</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0.9350945609086482</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0.1515875170584925</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0.7518951591755019</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.3810166207840756</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0.24690699562474427</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>